--- a/00_管理/10_スケジュール/【ZIP&CANDY】WBS.xlsx
+++ b/00_管理/10_スケジュール/【ZIP&CANDY】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{DB3FC3B3-D2A2-435D-AACF-568FD146F923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14668C6-A14D-46D8-9A4D-1122484D9C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1149,6 +1149,27 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1172,27 +1193,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1745,7 +1745,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N19" sqref="N19"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,11 +1783,11 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="24"/>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1796,59 +1796,59 @@
         <v>1</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="26"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AY2" s="22"/>
     </row>
     <row r="3" spans="2:68" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="39" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="12"/>
@@ -1873,204 +1873,204 @@
       <c r="AB3" s="14"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="37">
+      <c r="B4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="26">
         <v>43759</v>
       </c>
-      <c r="J4" s="37">
-        <v>43759</v>
-      </c>
-      <c r="K4" s="37">
+      <c r="J4" s="26">
         <v>43760</v>
       </c>
-      <c r="L4" s="37">
+      <c r="K4" s="26">
         <v>43761</v>
       </c>
-      <c r="M4" s="37">
+      <c r="L4" s="26">
         <v>43762</v>
       </c>
-      <c r="N4" s="37">
+      <c r="M4" s="26">
         <v>43763</v>
       </c>
-      <c r="O4" s="37">
+      <c r="N4" s="26">
         <v>43764</v>
       </c>
-      <c r="P4" s="37">
+      <c r="O4" s="26">
         <v>43765</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="P4" s="26">
         <v>43766</v>
       </c>
-      <c r="R4" s="37">
+      <c r="Q4" s="26">
         <v>43767</v>
       </c>
-      <c r="S4" s="37">
+      <c r="R4" s="26">
         <v>43768</v>
       </c>
-      <c r="T4" s="37">
+      <c r="S4" s="26">
         <v>43769</v>
       </c>
-      <c r="U4" s="37">
+      <c r="T4" s="26">
         <v>43770</v>
       </c>
-      <c r="V4" s="37">
+      <c r="U4" s="26">
         <v>43771</v>
       </c>
-      <c r="W4" s="37">
+      <c r="V4" s="26">
         <v>43772</v>
       </c>
-      <c r="X4" s="37">
+      <c r="W4" s="26">
         <v>43773</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="X4" s="26">
         <v>43774</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Y4" s="26">
         <v>43775</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="Z4" s="26">
         <v>43776</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AA4" s="26">
         <v>43777</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AB4" s="26">
         <v>43778</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AC4" s="26">
         <v>43779</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AD4" s="26">
         <v>43780</v>
       </c>
-      <c r="AF4" s="37">
+      <c r="AE4" s="26">
         <v>43781</v>
       </c>
-      <c r="AG4" s="37">
+      <c r="AF4" s="26">
         <v>43782</v>
       </c>
-      <c r="AH4" s="37">
+      <c r="AG4" s="26">
         <v>43783</v>
       </c>
-      <c r="AI4" s="37">
+      <c r="AH4" s="26">
         <v>43784</v>
       </c>
-      <c r="AJ4" s="37">
+      <c r="AI4" s="26">
         <v>43785</v>
       </c>
-      <c r="AK4" s="37">
+      <c r="AJ4" s="26">
         <v>43786</v>
       </c>
-      <c r="AL4" s="37">
+      <c r="AK4" s="26">
         <v>43787</v>
       </c>
-      <c r="AM4" s="37">
+      <c r="AL4" s="26">
         <v>43788</v>
       </c>
-      <c r="AN4" s="37">
+      <c r="AM4" s="26">
         <v>43789</v>
       </c>
-      <c r="AO4" s="37">
+      <c r="AN4" s="26">
         <v>43790</v>
       </c>
-      <c r="AP4" s="37">
+      <c r="AO4" s="26">
         <v>43791</v>
       </c>
-      <c r="AQ4" s="37">
+      <c r="AP4" s="26">
         <v>43792</v>
       </c>
-      <c r="AR4" s="37">
+      <c r="AQ4" s="26">
         <v>43793</v>
       </c>
-      <c r="AS4" s="37">
+      <c r="AR4" s="26">
         <v>43794</v>
       </c>
-      <c r="AT4" s="37">
+      <c r="AS4" s="26">
         <v>43795</v>
       </c>
-      <c r="AU4" s="37">
+      <c r="AT4" s="26">
         <v>43796</v>
       </c>
-      <c r="AV4" s="37">
+      <c r="AU4" s="26">
         <v>43797</v>
       </c>
-      <c r="AW4" s="37">
+      <c r="AV4" s="26">
         <v>43798</v>
       </c>
-      <c r="AX4" s="37">
+      <c r="AW4" s="26">
         <v>43799</v>
       </c>
-      <c r="AY4" s="37">
+      <c r="AX4" s="26">
         <v>43800</v>
       </c>
-      <c r="AZ4" s="37">
+      <c r="AY4" s="26">
         <v>43801</v>
       </c>
-      <c r="BA4" s="37">
+      <c r="AZ4" s="26">
         <v>43802</v>
       </c>
-      <c r="BB4" s="37">
+      <c r="BA4" s="26">
         <v>43803</v>
       </c>
-      <c r="BC4" s="37">
+      <c r="BB4" s="26">
         <v>43804</v>
       </c>
-      <c r="BD4" s="37">
+      <c r="BC4" s="26">
         <v>43805</v>
       </c>
-      <c r="BE4" s="37">
+      <c r="BD4" s="26">
         <v>43806</v>
       </c>
-      <c r="BF4" s="37">
+      <c r="BE4" s="26">
         <v>43807</v>
       </c>
-      <c r="BG4" s="37">
+      <c r="BF4" s="26">
         <v>43808</v>
       </c>
-      <c r="BH4" s="37">
+      <c r="BG4" s="26">
         <v>43809</v>
       </c>
-      <c r="BI4" s="37">
+      <c r="BH4" s="26">
         <v>43810</v>
       </c>
-      <c r="BJ4" s="37">
+      <c r="BI4" s="26">
         <v>43811</v>
       </c>
-      <c r="BK4" s="37">
+      <c r="BJ4" s="26">
         <v>43812</v>
       </c>
-      <c r="BL4" s="37">
+      <c r="BK4" s="26">
         <v>43813</v>
       </c>
-      <c r="BM4" s="37">
+      <c r="BL4" s="26">
         <v>43814</v>
       </c>
-      <c r="BN4" s="37">
+      <c r="BM4" s="26">
         <v>43815</v>
       </c>
-      <c r="BO4" s="37">
+      <c r="BN4" s="26">
         <v>43816</v>
       </c>
-      <c r="BP4" s="37">
+      <c r="BO4" s="26">
         <v>43817</v>
+      </c>
+      <c r="BP4" s="26">
+        <v>43818</v>
       </c>
     </row>
     <row r="5" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -2136,13 +2136,15 @@
       <c r="B6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="25">
         <v>43759</v>
       </c>
       <c r="D6" s="17">
         <v>7</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="25">
+        <v>43760</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
         <v>18</v>
@@ -2213,7 +2215,7 @@
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="25">
         <v>43759</v>
       </c>
       <c r="D7" s="17">
@@ -2290,7 +2292,7 @@
       <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="25">
         <v>43766</v>
       </c>
       <c r="D8" s="17">
@@ -2367,7 +2369,7 @@
       <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="25">
         <v>43766</v>
       </c>
       <c r="D9" s="17">
@@ -2444,7 +2446,7 @@
       <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="25">
         <v>43773</v>
       </c>
       <c r="D10" s="17">
@@ -2521,7 +2523,7 @@
       <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="25">
         <v>43778</v>
       </c>
       <c r="D11" s="17">
@@ -2595,15 +2597,15 @@
       <c r="BP11" s="19"/>
     </row>
     <row r="12" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -2669,7 +2671,7 @@
       <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="25">
         <v>43780</v>
       </c>
       <c r="D13" s="17">
@@ -2746,7 +2748,7 @@
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="25">
         <v>43783</v>
       </c>
       <c r="D14" s="17">
@@ -2823,7 +2825,7 @@
       <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="25">
         <v>43786</v>
       </c>
       <c r="D15" s="17">
@@ -2900,7 +2902,7 @@
       <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="25">
         <v>43791</v>
       </c>
       <c r="D16" s="17">
@@ -2974,15 +2976,15 @@
       <c r="BP16" s="19"/>
     </row>
     <row r="17" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -3400,15 +3402,15 @@
       <c r="BP22" s="19"/>
     </row>
     <row r="23" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -4576,11 +4578,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B12:H12"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="L2:N2"/>
@@ -4593,6 +4590,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="I6:BP39">
@@ -4686,11 +4688,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="39"/>
+    <col min="1" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>34</v>
       </c>
     </row>

--- a/00_管理/10_スケジュール/【ZIP&CANDY】WBS.xlsx
+++ b/00_管理/10_スケジュール/【ZIP&CANDY】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14668C6-A14D-46D8-9A4D-1122484D9C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56DE81A-1949-43E5-829B-57BDEE6A3303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>プロジェクト計画シート</t>
   </si>
@@ -309,6 +309,177 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>進捗率の考え方</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>50～70%</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>70～90%</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>90～100%</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>サマリー完成</t>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>1回目レビュー完了</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>レビュー指摘事項修正</t>
+    <rPh sb="4" eb="6">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>2回目レビュー完了</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ブランチ削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>0～20%</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>担当範囲サマリー作成</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>20～30%</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>30～50%</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>最終レビュー&amp;ブランチ削除</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>レビュー指摘事項修正&amp;清書完成</t>
+    <rPh sb="4" eb="6">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>清書版(パワポとか)作成</t>
+    <rPh sb="0" eb="2">
+      <t>セイショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>最終レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>成果物</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>テンプレートを用いる</t>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -325,7 +496,7 @@
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -583,6 +754,12 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1073,7 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,6 +1338,30 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,29 +1371,17 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="12" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1745,7 +1934,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,11 +1972,11 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="24"/>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1796,59 +1985,59 @@
         <v>1</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="33"/>
+      <c r="U2" s="30"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
       <c r="AY2" s="22"/>
     </row>
     <row r="3" spans="2:68" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="12"/>
@@ -1873,13 +2062,13 @@
       <c r="AB3" s="14"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="38"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="26">
         <v>43759</v>
       </c>
@@ -2062,15 +2251,15 @@
       </c>
     </row>
     <row r="5" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -2149,7 +2338,9 @@
       <c r="G6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <v>0.2</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -2597,15 +2788,15 @@
       <c r="BP11" s="19"/>
     </row>
     <row r="12" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -2976,15 +3167,15 @@
       <c r="BP16" s="19"/>
     </row>
     <row r="17" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -3402,15 +3593,15 @@
       <c r="BP22" s="19"/>
     </row>
     <row r="23" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -4578,6 +4769,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="L2:N2"/>
@@ -4590,11 +4786,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="I6:BP39">
@@ -4680,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49212762-3B48-4A9F-ADC6-87151DC5FE9A}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4691,14 +4882,218 @@
     <col min="1" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+    </row>
+    <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/00_管理/10_スケジュール/【ZIP&CANDY】WBS.xlsx
+++ b/00_管理/10_スケジュール/【ZIP&CANDY】WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56DE81A-1949-43E5-829B-57BDEE6A3303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3194C0B-17D4-4CEE-9A1A-180EA45B2DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,6 +1338,27 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1361,27 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1934,7 +1934,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1972,11 +1972,11 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="24"/>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1985,59 +1985,59 @@
         <v>1</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="30"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
       <c r="AY2" s="22"/>
     </row>
     <row r="3" spans="2:68" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="12"/>
@@ -2062,13 +2062,13 @@
       <c r="AB3" s="14"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="26">
         <v>43759</v>
       </c>
@@ -2251,15 +2251,15 @@
       </c>
     </row>
     <row r="5" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -2334,12 +2334,14 @@
       <c r="E6" s="25">
         <v>43760</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>5</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="18">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2788,15 +2790,15 @@
       <c r="BP11" s="19"/>
     </row>
     <row r="12" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -3167,15 +3169,15 @@
       <c r="BP16" s="19"/>
     </row>
     <row r="17" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -3593,15 +3595,15 @@
       <c r="BP22" s="19"/>
     </row>
     <row r="23" spans="2:68" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -4769,11 +4771,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B12:H12"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="L2:N2"/>
@@ -4786,6 +4783,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="I6:BP39">
@@ -4874,7 +4876,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4888,144 +4890,144 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="29"/>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
@@ -5033,50 +5035,50 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="30" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5086,7 +5088,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>55</v>
       </c>
     </row>
